--- a/data/pca/factorExposure/factorExposure_2009-12-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.003576582100722024</v>
+        <v>0.0168794723455555</v>
       </c>
       <c r="C2">
-        <v>0.009414725000514402</v>
+        <v>-0.00123003172890311</v>
       </c>
       <c r="D2">
-        <v>-0.001093750910364503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.006110105609518272</v>
+      </c>
+      <c r="E2">
+        <v>0.0003419088740720504</v>
+      </c>
+      <c r="F2">
+        <v>-0.01142078190280574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.03001294976494174</v>
+        <v>0.09376021121130682</v>
       </c>
       <c r="C4">
-        <v>0.1230563692257601</v>
+        <v>-0.01576090144797099</v>
       </c>
       <c r="D4">
-        <v>-0.01614403647594136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08405584214686557</v>
+      </c>
+      <c r="E4">
+        <v>-0.02846223509922149</v>
+      </c>
+      <c r="F4">
+        <v>0.03077589711290987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03732799167513044</v>
+        <v>0.1572798458956599</v>
       </c>
       <c r="C6">
-        <v>0.1100675134206906</v>
+        <v>-0.02543211253824937</v>
       </c>
       <c r="D6">
-        <v>0.03351133381186756</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02327041637528603</v>
+      </c>
+      <c r="E6">
+        <v>-0.008667796686013116</v>
+      </c>
+      <c r="F6">
+        <v>0.04652927423891239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01010982308874764</v>
+        <v>0.06258128710939072</v>
       </c>
       <c r="C7">
-        <v>0.08190530073712543</v>
+        <v>0.001003035068015043</v>
       </c>
       <c r="D7">
-        <v>0.002076128605038742</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05145067766776822</v>
+      </c>
+      <c r="E7">
+        <v>-0.009594201016288184</v>
+      </c>
+      <c r="F7">
+        <v>0.04663465836331487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.002793458479050736</v>
+        <v>0.05712147771462169</v>
       </c>
       <c r="C8">
-        <v>0.06471077289073204</v>
+        <v>0.01335588874320847</v>
       </c>
       <c r="D8">
-        <v>0.02349219797435724</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.0333900301958026</v>
+      </c>
+      <c r="E8">
+        <v>-0.0175445125022856</v>
+      </c>
+      <c r="F8">
+        <v>-0.02825398613181975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02525804110307633</v>
+        <v>0.07124653827595125</v>
       </c>
       <c r="C9">
-        <v>0.1013508742646202</v>
+        <v>-0.01143657632757591</v>
       </c>
       <c r="D9">
-        <v>-0.02317029176261595</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08606903952485138</v>
+      </c>
+      <c r="E9">
+        <v>-0.02306550283987416</v>
+      </c>
+      <c r="F9">
+        <v>0.04725130330960579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01154389135183074</v>
+        <v>0.09629373306403602</v>
       </c>
       <c r="C10">
-        <v>0.02619711270719353</v>
+        <v>-0.01995091566713324</v>
       </c>
       <c r="D10">
-        <v>0.1295064952475401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1709744826311201</v>
+      </c>
+      <c r="E10">
+        <v>0.0368926027942103</v>
+      </c>
+      <c r="F10">
+        <v>-0.05351360108017713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.02943926937660325</v>
+        <v>0.08788388920504193</v>
       </c>
       <c r="C11">
-        <v>0.1067773532459413</v>
+        <v>-0.01103077743781924</v>
       </c>
       <c r="D11">
-        <v>-0.0321899704913834</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1161006489857001</v>
+      </c>
+      <c r="E11">
+        <v>-0.04588432436111518</v>
+      </c>
+      <c r="F11">
+        <v>0.02149501365234322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02682887436672277</v>
+        <v>0.09196914987246607</v>
       </c>
       <c r="C12">
-        <v>0.1175136825941052</v>
+        <v>-0.008086457556745566</v>
       </c>
       <c r="D12">
-        <v>-0.03016442767936525</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1316358053968235</v>
+      </c>
+      <c r="E12">
+        <v>-0.0472016139035468</v>
+      </c>
+      <c r="F12">
+        <v>0.0254370439250379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.009048101736345921</v>
+        <v>0.04227964577035157</v>
       </c>
       <c r="C13">
-        <v>0.04324140486786771</v>
+        <v>-0.003383350190140931</v>
       </c>
       <c r="D13">
-        <v>-0.02588287730521126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05137030012624758</v>
+      </c>
+      <c r="E13">
+        <v>0.008867226378003523</v>
+      </c>
+      <c r="F13">
+        <v>0.002336038005817389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01602490923260246</v>
+        <v>0.02303004721980315</v>
       </c>
       <c r="C14">
-        <v>0.02326607072210625</v>
+        <v>-0.01391560166930856</v>
       </c>
       <c r="D14">
-        <v>0.005015665720923865</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03322439228373805</v>
+      </c>
+      <c r="E14">
+        <v>-0.01717586797509555</v>
+      </c>
+      <c r="F14">
+        <v>0.01440560421677559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01048246368670257</v>
+        <v>0.03284251214030206</v>
       </c>
       <c r="C15">
-        <v>0.02795071346875986</v>
+        <v>-0.004913035796252982</v>
       </c>
       <c r="D15">
-        <v>-0.01495307145282048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04523697627547776</v>
+      </c>
+      <c r="E15">
+        <v>-0.00604696683534453</v>
+      </c>
+      <c r="F15">
+        <v>0.02286199605061583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01846444530403775</v>
+        <v>0.07412441425530653</v>
       </c>
       <c r="C16">
-        <v>0.1110241345144578</v>
+        <v>-0.002094769013989026</v>
       </c>
       <c r="D16">
-        <v>-0.01219158777630019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1256765735530204</v>
+      </c>
+      <c r="E16">
+        <v>-0.06137657444552516</v>
+      </c>
+      <c r="F16">
+        <v>0.02433490215430414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03165995938926764</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003287651430721023</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01954675778744133</v>
+      </c>
+      <c r="E18">
+        <v>0.006973918484034569</v>
+      </c>
+      <c r="F18">
+        <v>-0.003611065423312452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01179151444969573</v>
+        <v>0.06107472410071806</v>
       </c>
       <c r="C20">
-        <v>0.06740023924085546</v>
+        <v>-0.0005655108884757263</v>
       </c>
       <c r="D20">
-        <v>0.001140402038773989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07664011583459432</v>
+      </c>
+      <c r="E20">
+        <v>-0.05562429461111704</v>
+      </c>
+      <c r="F20">
+        <v>0.02326159036861296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01267131450240098</v>
+        <v>0.04048235680509154</v>
       </c>
       <c r="C21">
-        <v>0.02378778073103752</v>
+        <v>-0.006587842990317586</v>
       </c>
       <c r="D21">
-        <v>7.49524718188676e-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03647330698126483</v>
+      </c>
+      <c r="E21">
+        <v>0.005701430976052245</v>
+      </c>
+      <c r="F21">
+        <v>-0.0240431227339241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.004905944029300011</v>
+        <v>0.04384780051273345</v>
       </c>
       <c r="C22">
-        <v>0.02894121515032295</v>
+        <v>-0.001140387620797382</v>
       </c>
       <c r="D22">
-        <v>0.04074598579101623</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002869185815133703</v>
+      </c>
+      <c r="E22">
+        <v>-0.02925772283391278</v>
+      </c>
+      <c r="F22">
+        <v>-0.03470658322280422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.004893837363303013</v>
+        <v>0.04383338351751515</v>
       </c>
       <c r="C23">
-        <v>0.02887253320181428</v>
+        <v>-0.001136121694389138</v>
       </c>
       <c r="D23">
-        <v>0.04082816953226347</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002873964299812235</v>
+      </c>
+      <c r="E23">
+        <v>-0.02945937988062447</v>
+      </c>
+      <c r="F23">
+        <v>-0.03466935701333884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01892024408776403</v>
+        <v>0.08019268058450013</v>
       </c>
       <c r="C24">
-        <v>0.1129585214801123</v>
+        <v>-0.002650205217814749</v>
       </c>
       <c r="D24">
-        <v>-0.02243074978039481</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1202944636667811</v>
+      </c>
+      <c r="E24">
+        <v>-0.04877221552121082</v>
+      </c>
+      <c r="F24">
+        <v>0.02564620482224229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02435924175095102</v>
+        <v>0.08511716811557178</v>
       </c>
       <c r="C25">
-        <v>0.1156776778658619</v>
+        <v>-0.004887231065485947</v>
       </c>
       <c r="D25">
-        <v>-0.02015172040512999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1087214380091839</v>
+      </c>
+      <c r="E25">
+        <v>-0.03209139541649212</v>
+      </c>
+      <c r="F25">
+        <v>0.02646880758369506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02394301937872573</v>
+        <v>0.05758625754565789</v>
       </c>
       <c r="C26">
-        <v>0.04862863727961556</v>
+        <v>-0.01458086163599823</v>
       </c>
       <c r="D26">
-        <v>0.01929802767442923</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04014852020818365</v>
+      </c>
+      <c r="E26">
+        <v>-0.02801670374289761</v>
+      </c>
+      <c r="F26">
+        <v>-0.009568471033272132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.004133159661012084</v>
+        <v>0.1407543608395398</v>
       </c>
       <c r="C28">
-        <v>0.03252106061413405</v>
+        <v>-0.0191391689395969</v>
       </c>
       <c r="D28">
-        <v>0.1846105115757018</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2634862248844282</v>
+      </c>
+      <c r="E28">
+        <v>0.06812881252482041</v>
+      </c>
+      <c r="F28">
+        <v>0.009453657886504849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01286893237714604</v>
+        <v>0.02772029451178907</v>
       </c>
       <c r="C29">
-        <v>0.02840987578687469</v>
+        <v>-0.008151853079867294</v>
       </c>
       <c r="D29">
-        <v>0.01113006147094951</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03263926907045648</v>
+      </c>
+      <c r="E29">
+        <v>-0.01135208145820377</v>
+      </c>
+      <c r="F29">
+        <v>-0.01022599513761716</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01527551054489914</v>
+        <v>0.06161456818733838</v>
       </c>
       <c r="C30">
-        <v>0.130833604288504</v>
+        <v>-0.0039278887750457</v>
       </c>
       <c r="D30">
-        <v>-0.02063421025485217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08750518299077698</v>
+      </c>
+      <c r="E30">
+        <v>-0.01877546294399243</v>
+      </c>
+      <c r="F30">
+        <v>0.08302403122278024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02188014268202045</v>
+        <v>0.04997493520431522</v>
       </c>
       <c r="C31">
-        <v>0.03591828227048609</v>
+        <v>-0.01526418227243821</v>
       </c>
       <c r="D31">
-        <v>0.004277299763440069</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02487215961210257</v>
+      </c>
+      <c r="E31">
+        <v>-0.02750959678308642</v>
+      </c>
+      <c r="F31">
+        <v>-0.002695351159267666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.007450861148056995</v>
+        <v>0.04991209163670138</v>
       </c>
       <c r="C32">
-        <v>0.05983488528610352</v>
+        <v>0.001472739722891661</v>
       </c>
       <c r="D32">
-        <v>0.03125116509520112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03599553076663706</v>
+      </c>
+      <c r="E32">
+        <v>-0.03117545871321904</v>
+      </c>
+      <c r="F32">
+        <v>0.002649627269627311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02242365133014201</v>
+        <v>0.08932296566882186</v>
       </c>
       <c r="C33">
-        <v>0.1160427225814579</v>
+        <v>-0.008205312498917287</v>
       </c>
       <c r="D33">
-        <v>-0.02119064748874237</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09858291391604936</v>
+      </c>
+      <c r="E33">
+        <v>-0.04395948338097205</v>
+      </c>
+      <c r="F33">
+        <v>0.03567420768842938</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02600685280039578</v>
+        <v>0.0684299730085373</v>
       </c>
       <c r="C34">
-        <v>0.09760453955500781</v>
+        <v>-0.01117865809724735</v>
       </c>
       <c r="D34">
-        <v>-0.01337232397434336</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1065987164774725</v>
+      </c>
+      <c r="E34">
+        <v>-0.03451845605655138</v>
+      </c>
+      <c r="F34">
+        <v>0.033604083358014</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.003888545541453305</v>
+        <v>0.02411203349006152</v>
       </c>
       <c r="C35">
-        <v>0.01639273784410289</v>
+        <v>-0.002388526830168494</v>
       </c>
       <c r="D35">
-        <v>-0.001411899929238753</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0119813955854398</v>
+      </c>
+      <c r="E35">
+        <v>-0.01173602582112848</v>
+      </c>
+      <c r="F35">
+        <v>0.001095653521119152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01085211875421196</v>
+        <v>0.02756705393863666</v>
       </c>
       <c r="C36">
-        <v>0.02787106778402459</v>
+        <v>-0.007227344001031682</v>
       </c>
       <c r="D36">
-        <v>-0.01113548593692347</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03934323148059701</v>
+      </c>
+      <c r="E36">
+        <v>-0.01601190720284379</v>
+      </c>
+      <c r="F36">
+        <v>0.01535726533102315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.000412326715138204</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>4.331513632529966e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0004249180791523118</v>
+      </c>
+      <c r="E37">
+        <v>0.0004458211569195871</v>
+      </c>
+      <c r="F37">
+        <v>0.0007367344252889816</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.000556905447731427</v>
+        <v>0.001253582439807122</v>
       </c>
       <c r="C38">
-        <v>0.003785048675308493</v>
+        <v>-0.0001798411336123828</v>
       </c>
       <c r="D38">
-        <v>0.001249447288293604</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0007248110505999344</v>
+      </c>
+      <c r="E38">
+        <v>-0.0009018373150366419</v>
+      </c>
+      <c r="F38">
+        <v>-0.0004711924541936652</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04184745263863052</v>
+        <v>0.1057197204530065</v>
       </c>
       <c r="C39">
-        <v>0.1711777534357298</v>
+        <v>-0.01642457342697274</v>
       </c>
       <c r="D39">
-        <v>-0.04672382106048843</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.153889899411859</v>
+      </c>
+      <c r="E39">
+        <v>-0.05899470033037509</v>
+      </c>
+      <c r="F39">
+        <v>0.02791225362157496</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01116695566349165</v>
+        <v>0.04105736759361716</v>
       </c>
       <c r="C40">
-        <v>0.013490823909204</v>
+        <v>-0.007116121758677631</v>
       </c>
       <c r="D40">
-        <v>0.009230785291727253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03187840900788384</v>
+      </c>
+      <c r="E40">
+        <v>-0.002933914388745546</v>
+      </c>
+      <c r="F40">
+        <v>-0.01579631125660471</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01131676319034498</v>
+        <v>0.02754657169146055</v>
       </c>
       <c r="C41">
-        <v>0.01940433955396442</v>
+        <v>-0.006703582140115806</v>
       </c>
       <c r="D41">
-        <v>0.01698477178813667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01062698611131965</v>
+      </c>
+      <c r="E41">
+        <v>-0.01257256425573977</v>
+      </c>
+      <c r="F41">
+        <v>-0.006831481486718465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01323316317444762</v>
+        <v>0.04045399389456162</v>
       </c>
       <c r="C43">
-        <v>0.02725881528458777</v>
+        <v>-0.006688088209186594</v>
       </c>
       <c r="D43">
-        <v>0.01075244967975082</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02091963751494731</v>
+      </c>
+      <c r="E43">
+        <v>-0.02522334963029006</v>
+      </c>
+      <c r="F43">
+        <v>-0.01263992355786088</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03128431484682089</v>
+        <v>0.08035296306020341</v>
       </c>
       <c r="C44">
-        <v>0.1302342675389936</v>
+        <v>-0.02027744117300765</v>
       </c>
       <c r="D44">
-        <v>-0.003745127540160299</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09895944989219935</v>
+      </c>
+      <c r="E44">
+        <v>-0.06629815505572717</v>
+      </c>
+      <c r="F44">
+        <v>0.1571358993888967</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005454748924319889</v>
+        <v>0.02339251025875242</v>
       </c>
       <c r="C46">
-        <v>0.005997464765307013</v>
+        <v>-0.003417210485554435</v>
       </c>
       <c r="D46">
-        <v>0.01814305104675068</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01376583849868972</v>
+      </c>
+      <c r="E46">
+        <v>-0.02275661066301412</v>
+      </c>
+      <c r="F46">
+        <v>-0.004328613406284306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.01029651468285608</v>
+        <v>0.05131109703949066</v>
       </c>
       <c r="C47">
-        <v>0.03077716371452922</v>
+        <v>-0.003541354704578808</v>
       </c>
       <c r="D47">
-        <v>0.02696928206202385</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01391389936881605</v>
+      </c>
+      <c r="E47">
+        <v>-0.02366806440830512</v>
+      </c>
+      <c r="F47">
+        <v>-0.03372126188119171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01188077168916612</v>
+        <v>0.04960213926185059</v>
       </c>
       <c r="C48">
-        <v>0.04867282444877474</v>
+        <v>-0.002487274078957309</v>
       </c>
       <c r="D48">
-        <v>-0.01226740704563442</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0501382662838765</v>
+      </c>
+      <c r="E48">
+        <v>0.00626163502320753</v>
+      </c>
+      <c r="F48">
+        <v>0.009447980412220967</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03673567082428018</v>
+        <v>0.1994688814198114</v>
       </c>
       <c r="C49">
-        <v>0.2092846964575455</v>
+        <v>-0.01847220656878124</v>
       </c>
       <c r="D49">
-        <v>0.06880979340738522</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007825702664757165</v>
+      </c>
+      <c r="E49">
+        <v>-0.03141790862479858</v>
+      </c>
+      <c r="F49">
+        <v>0.03841586343394058</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01848613822337119</v>
+        <v>0.05070277404068391</v>
       </c>
       <c r="C50">
-        <v>0.04042868940788943</v>
+        <v>-0.01123272983750207</v>
       </c>
       <c r="D50">
-        <v>0.01171000441927466</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02341461834509348</v>
+      </c>
+      <c r="E50">
+        <v>-0.02916730135343419</v>
+      </c>
+      <c r="F50">
+        <v>0.008605651484557953</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.000459165040912259</v>
+        <v>0.0009515380252614492</v>
       </c>
       <c r="C51">
-        <v>0.002478508754429638</v>
+        <v>-0.0002691746585761112</v>
       </c>
       <c r="D51">
-        <v>0.00331287565482422</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0007336444880107126</v>
+      </c>
+      <c r="E51">
+        <v>-4.739073562787177e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.002856473269255234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.03012043451887814</v>
+        <v>0.1461321397627198</v>
       </c>
       <c r="C52">
-        <v>0.1500090317723904</v>
+        <v>-0.0154431815519099</v>
       </c>
       <c r="D52">
-        <v>-0.01924794962805689</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.0457924942961716</v>
+      </c>
+      <c r="E52">
+        <v>-0.02074538446901355</v>
+      </c>
+      <c r="F52">
+        <v>0.04083538385669928</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.03128059166784348</v>
+        <v>0.1726636322006267</v>
       </c>
       <c r="C53">
-        <v>0.1717182092137119</v>
+        <v>-0.01873462092058137</v>
       </c>
       <c r="D53">
-        <v>0.01662731965178806</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005449226754722422</v>
+      </c>
+      <c r="E53">
+        <v>-0.03126842249917218</v>
+      </c>
+      <c r="F53">
+        <v>0.07256127996838599</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01582306048396229</v>
+        <v>0.02230485445173773</v>
       </c>
       <c r="C54">
-        <v>0.0410041789526898</v>
+        <v>-0.01269875677925942</v>
       </c>
       <c r="D54">
-        <v>0.01081849636590855</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0335876620541676</v>
+      </c>
+      <c r="E54">
+        <v>-0.01870973659873326</v>
+      </c>
+      <c r="F54">
+        <v>-0.003465068983466695</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02423689988478648</v>
+        <v>0.1140789596092864</v>
       </c>
       <c r="C55">
-        <v>0.08686176327936146</v>
+        <v>-0.01650490034220382</v>
       </c>
       <c r="D55">
-        <v>-0.002602050958430361</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009177376641243871</v>
+      </c>
+      <c r="E55">
+        <v>-0.02787575568947677</v>
+      </c>
+      <c r="F55">
+        <v>0.04665082708604487</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03225377805790444</v>
+        <v>0.1770773581122573</v>
       </c>
       <c r="C56">
-        <v>0.1589930573465064</v>
+        <v>-0.01611613635002928</v>
       </c>
       <c r="D56">
-        <v>0.02852085572081911</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001313855589143109</v>
+      </c>
+      <c r="E56">
+        <v>-0.03586619174739468</v>
+      </c>
+      <c r="F56">
+        <v>0.05095700191429778</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01253072530186376</v>
+        <v>0.04666024263683934</v>
       </c>
       <c r="C58">
-        <v>0.04878367667169106</v>
+        <v>-0.0009306902732445973</v>
       </c>
       <c r="D58">
-        <v>-0.004669597694566561</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06715132907928002</v>
+      </c>
+      <c r="E58">
+        <v>-0.02764491393007177</v>
+      </c>
+      <c r="F58">
+        <v>-0.03660916051439265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01202175333301418</v>
+        <v>0.1671613746671837</v>
       </c>
       <c r="C59">
-        <v>0.08757659066863033</v>
+        <v>-0.01950116079725587</v>
       </c>
       <c r="D59">
-        <v>0.1985975604859217</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2176235543255145</v>
+      </c>
+      <c r="E59">
+        <v>0.04474306102614471</v>
+      </c>
+      <c r="F59">
+        <v>-0.03513538667503278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.02511630283343391</v>
+        <v>0.2311914465505475</v>
       </c>
       <c r="C60">
-        <v>0.2668060085175573</v>
+        <v>0.002687540971101673</v>
       </c>
       <c r="D60">
-        <v>0.001134967326459944</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04213848084090337</v>
+      </c>
+      <c r="E60">
+        <v>-0.01126946159169491</v>
+      </c>
+      <c r="F60">
+        <v>-0.006979999246857262</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.02950318275031389</v>
+        <v>0.08230098378107782</v>
       </c>
       <c r="C61">
-        <v>0.1271831887039235</v>
+        <v>-0.01238480601489276</v>
       </c>
       <c r="D61">
-        <v>-0.01784195239275803</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.115838084389457</v>
+      </c>
+      <c r="E61">
+        <v>-0.03861148820134954</v>
+      </c>
+      <c r="F61">
+        <v>0.01106936697408649</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03425478664700913</v>
+        <v>0.170694330930712</v>
       </c>
       <c r="C62">
-        <v>0.1622244710794008</v>
+        <v>-0.01955446511966986</v>
       </c>
       <c r="D62">
-        <v>0.02244419167090692</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.007030517244646125</v>
+      </c>
+      <c r="E62">
+        <v>-0.03529037796250677</v>
+      </c>
+      <c r="F62">
+        <v>0.03448329230698557</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01215637306203122</v>
+        <v>0.04558368235463706</v>
       </c>
       <c r="C63">
-        <v>0.05361265965488337</v>
+        <v>-0.002260395792701351</v>
       </c>
       <c r="D63">
-        <v>-0.003087373462170234</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05755575883400515</v>
+      </c>
+      <c r="E63">
+        <v>-0.02123548769071151</v>
+      </c>
+      <c r="F63">
+        <v>0.005942044973698351</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.0233317879276626</v>
+        <v>0.1108786886883061</v>
       </c>
       <c r="C64">
-        <v>0.09786074872668324</v>
+        <v>-0.01154551632063972</v>
       </c>
       <c r="D64">
-        <v>0.004717361495221296</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04185850022356946</v>
+      </c>
+      <c r="E64">
+        <v>-0.02399542176367084</v>
+      </c>
+      <c r="F64">
+        <v>0.02573940209162785</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03779484538968569</v>
+        <v>0.1481545473914954</v>
       </c>
       <c r="C65">
-        <v>0.1037145054334841</v>
+        <v>-0.03259882939063213</v>
       </c>
       <c r="D65">
-        <v>0.01662285860650694</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0429523241591233</v>
+      </c>
+      <c r="E65">
+        <v>-0.002828258350411392</v>
+      </c>
+      <c r="F65">
+        <v>0.03990286518802471</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.0405214459229422</v>
+        <v>0.1252704480944548</v>
       </c>
       <c r="C66">
-        <v>0.2005313739421592</v>
+        <v>-0.01452113311966127</v>
       </c>
       <c r="D66">
-        <v>-0.02591144564469234</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1422974468050822</v>
+      </c>
+      <c r="E66">
+        <v>-0.06648791032390777</v>
+      </c>
+      <c r="F66">
+        <v>0.03052473945593341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01465811991048141</v>
+        <v>0.06084524316214229</v>
       </c>
       <c r="C67">
-        <v>0.06580891684805652</v>
+        <v>-0.00337055620178773</v>
       </c>
       <c r="D67">
-        <v>-0.001756749306722367</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05594145474575252</v>
+      </c>
+      <c r="E67">
+        <v>-0.01751134264309649</v>
+      </c>
+      <c r="F67">
+        <v>-0.03394761686550939</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01505028695656357</v>
+        <v>0.1163612936892124</v>
       </c>
       <c r="C68">
-        <v>0.02357879220138981</v>
+        <v>-0.02951191611957798</v>
       </c>
       <c r="D68">
-        <v>0.1742134539225774</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2601832103758334</v>
+      </c>
+      <c r="E68">
+        <v>0.08666597503147942</v>
+      </c>
+      <c r="F68">
+        <v>0.005674444625523977</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005668637814280295</v>
+        <v>0.03975984599066315</v>
       </c>
       <c r="C69">
-        <v>0.02997604160051599</v>
+        <v>-0.00137129292705865</v>
       </c>
       <c r="D69">
-        <v>0.005205425265023831</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007330843207906905</v>
+      </c>
+      <c r="E69">
+        <v>-0.02308751224566135</v>
+      </c>
+      <c r="F69">
+        <v>-0.001255935992747489</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0009605784432703157</v>
+        <v>0.0657809377576463</v>
       </c>
       <c r="C70">
-        <v>0.03159013199466402</v>
+        <v>0.02797865270981026</v>
       </c>
       <c r="D70">
-        <v>0.0029830861117152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02554208730402247</v>
+      </c>
+      <c r="E70">
+        <v>0.03981338819202978</v>
+      </c>
+      <c r="F70">
+        <v>-0.1861775809032476</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.0187180295606044</v>
+        <v>0.1365974634483972</v>
       </c>
       <c r="C71">
-        <v>0.0298477376136235</v>
+        <v>-0.03432752881366319</v>
       </c>
       <c r="D71">
-        <v>0.1848074864640021</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2741994555433409</v>
+      </c>
+      <c r="E71">
+        <v>0.09634470505725069</v>
+      </c>
+      <c r="F71">
+        <v>0.01254954441439525</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.0356373717346898</v>
+        <v>0.1420430900182243</v>
       </c>
       <c r="C72">
-        <v>0.1153057672979874</v>
+        <v>-0.0258893528853313</v>
       </c>
       <c r="D72">
-        <v>0.03728616799143718</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001070744372294386</v>
+      </c>
+      <c r="E72">
+        <v>-0.0388269642378466</v>
+      </c>
+      <c r="F72">
+        <v>0.03522409632654324</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03299107032254917</v>
+        <v>0.200717797571713</v>
       </c>
       <c r="C73">
-        <v>0.2098876722724221</v>
+        <v>-0.0125352941096623</v>
       </c>
       <c r="D73">
-        <v>0.06527223681583151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01738767474230586</v>
+      </c>
+      <c r="E73">
+        <v>-0.06455591250688164</v>
+      </c>
+      <c r="F73">
+        <v>0.0383828633315418</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.01947661736685456</v>
+        <v>0.0949766162953454</v>
       </c>
       <c r="C74">
-        <v>0.107539199108708</v>
+        <v>-0.0131360581185936</v>
       </c>
       <c r="D74">
-        <v>0.02166737616517431</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01791603293480183</v>
+      </c>
+      <c r="E74">
+        <v>-0.0445563916422203</v>
+      </c>
+      <c r="F74">
+        <v>0.05616410439486361</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04073241760994142</v>
+        <v>0.1283130715874108</v>
       </c>
       <c r="C75">
-        <v>0.1329053565531611</v>
+        <v>-0.02771481120958898</v>
       </c>
       <c r="D75">
-        <v>0.03319459844417321</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03046109726785411</v>
+      </c>
+      <c r="E75">
+        <v>-0.05818397785438351</v>
+      </c>
+      <c r="F75">
+        <v>0.01760403085679639</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0003068385093116918</v>
+        <v>0.0008590715171360933</v>
       </c>
       <c r="C76">
-        <v>0.002780354633964218</v>
+        <v>-0.0002362977755378258</v>
       </c>
       <c r="D76">
-        <v>0.003296904382952569</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0006985955982399083</v>
+      </c>
+      <c r="E76">
+        <v>-0.000242779594304992</v>
+      </c>
+      <c r="F76">
+        <v>0.0008519204391587975</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02435533425656387</v>
+        <v>0.08480831599300394</v>
       </c>
       <c r="C77">
-        <v>0.1011327798864767</v>
+        <v>-0.008196933925754385</v>
       </c>
       <c r="D77">
-        <v>-0.05209221335301951</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1133575409667736</v>
+      </c>
+      <c r="E77">
+        <v>-0.03799548587323596</v>
+      </c>
+      <c r="F77">
+        <v>0.03045644532853465</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.05364989310044344</v>
+        <v>0.09979819853307194</v>
       </c>
       <c r="C78">
-        <v>0.1448292156207839</v>
+        <v>-0.03945901030799739</v>
       </c>
       <c r="D78">
-        <v>0.02091446254899364</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1169314094842103</v>
+      </c>
+      <c r="E78">
+        <v>-0.07454041566975116</v>
+      </c>
+      <c r="F78">
+        <v>0.04505357355060172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03590512795320996</v>
+        <v>0.1647168948776836</v>
       </c>
       <c r="C79">
-        <v>0.1440846622116184</v>
+        <v>-0.02217581355935121</v>
       </c>
       <c r="D79">
-        <v>0.03574181550695844</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01587853489570771</v>
+      </c>
+      <c r="E79">
+        <v>-0.04671808597486705</v>
+      </c>
+      <c r="F79">
+        <v>0.0109646040731201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.008010126176848069</v>
+        <v>0.08243673442731973</v>
       </c>
       <c r="C80">
-        <v>0.08243585431727898</v>
+        <v>0.00078719267321546</v>
       </c>
       <c r="D80">
-        <v>0.003805443705323181</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05731323052305339</v>
+      </c>
+      <c r="E80">
+        <v>-0.03732731164848072</v>
+      </c>
+      <c r="F80">
+        <v>-0.0243105764366301</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04264933487802757</v>
+        <v>0.1216473998898695</v>
       </c>
       <c r="C81">
-        <v>0.1404577230553205</v>
+        <v>-0.03162795440037183</v>
       </c>
       <c r="D81">
-        <v>0.0174320697304929</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01592166229633996</v>
+      </c>
+      <c r="E81">
+        <v>-0.05794895790531367</v>
+      </c>
+      <c r="F81">
+        <v>0.01578784475772698</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03724593144324231</v>
+        <v>0.1663966824873262</v>
       </c>
       <c r="C82">
-        <v>0.164442216541769</v>
+        <v>-0.02400063139086708</v>
       </c>
       <c r="D82">
-        <v>0.03281115779125785</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004087957438714897</v>
+      </c>
+      <c r="E82">
+        <v>-0.02818835453981909</v>
+      </c>
+      <c r="F82">
+        <v>0.07918080683821585</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.0173007381210075</v>
+        <v>0.06071139198128142</v>
       </c>
       <c r="C83">
-        <v>0.07597201781007457</v>
+        <v>-0.003150838462909735</v>
       </c>
       <c r="D83">
-        <v>0.006143975378199025</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05030083620172224</v>
+      </c>
+      <c r="E83">
+        <v>-0.004905159130982468</v>
+      </c>
+      <c r="F83">
+        <v>-0.03197897020040522</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02642553782688351</v>
+        <v>0.05808268026257904</v>
       </c>
       <c r="C84">
-        <v>0.07729527099070634</v>
+        <v>-0.01109157080038155</v>
       </c>
       <c r="D84">
-        <v>-0.0100844676498849</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0652375472965265</v>
+      </c>
+      <c r="E84">
+        <v>-0.007740134363086327</v>
+      </c>
+      <c r="F84">
+        <v>0.003517401259145023</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.0374153048494577</v>
+        <v>0.1367232620711038</v>
       </c>
       <c r="C85">
-        <v>0.1176838221454514</v>
+        <v>-0.02750667895749423</v>
       </c>
       <c r="D85">
-        <v>0.01771336762991589</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01155805415323896</v>
+      </c>
+      <c r="E85">
+        <v>-0.03898737340800396</v>
+      </c>
+      <c r="F85">
+        <v>0.04540855427364827</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.008015887035053071</v>
+        <v>0.0937189336134792</v>
       </c>
       <c r="C86">
-        <v>0.08605659075446861</v>
+        <v>0.006331329577447695</v>
       </c>
       <c r="D86">
-        <v>0.2294421022978944</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04126357914547629</v>
+      </c>
+      <c r="E86">
+        <v>-0.2108800727947543</v>
+      </c>
+      <c r="F86">
+        <v>-0.9085776847207624</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03849187169288329</v>
+        <v>0.09706260380152047</v>
       </c>
       <c r="C87">
-        <v>0.1027875306862975</v>
+        <v>-0.02028088872086115</v>
       </c>
       <c r="D87">
-        <v>-0.05869184279061284</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09504721543146114</v>
+      </c>
+      <c r="E87">
+        <v>0.05110677599943417</v>
+      </c>
+      <c r="F87">
+        <v>0.0532321299390448</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.0129220420555215</v>
+        <v>0.06084632095766873</v>
       </c>
       <c r="C88">
-        <v>0.05875311979806105</v>
+        <v>-0.00232954595925832</v>
       </c>
       <c r="D88">
-        <v>-0.005777602577192625</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05029746990732265</v>
+      </c>
+      <c r="E88">
+        <v>-0.02489331855124726</v>
+      </c>
+      <c r="F88">
+        <v>0.01207281803409492</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.000293353999073804</v>
+        <v>0.1343961948245761</v>
       </c>
       <c r="C89">
-        <v>0.05109105906507065</v>
+        <v>-0.01191893702700274</v>
       </c>
       <c r="D89">
-        <v>0.2240525362964767</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.251893334434782</v>
+      </c>
+      <c r="E89">
+        <v>0.09122471586254889</v>
+      </c>
+      <c r="F89">
+        <v>-0.008264708614898187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01740793828100409</v>
+        <v>0.149682672645391</v>
       </c>
       <c r="C90">
-        <v>0.03181813424461939</v>
+        <v>-0.03015529857840079</v>
       </c>
       <c r="D90">
-        <v>0.1953995787268704</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2681258301795617</v>
+      </c>
+      <c r="E90">
+        <v>0.1116894406855156</v>
+      </c>
+      <c r="F90">
+        <v>-0.001606786699536587</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02297078904291186</v>
+        <v>0.1201187825470517</v>
       </c>
       <c r="C91">
-        <v>0.09826651861010385</v>
+        <v>-0.01856595356538717</v>
       </c>
       <c r="D91">
-        <v>0.02622571224228698</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01312015707788545</v>
+      </c>
+      <c r="E91">
+        <v>-0.05635583519161429</v>
+      </c>
+      <c r="F91">
+        <v>-0.003605976466963045</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.001805263579358211</v>
+        <v>0.1475184430034218</v>
       </c>
       <c r="C92">
-        <v>0.04684227210767409</v>
+        <v>-0.02214726908833168</v>
       </c>
       <c r="D92">
-        <v>0.2035125224652549</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2916373171485517</v>
+      </c>
+      <c r="E92">
+        <v>0.1005995827563266</v>
+      </c>
+      <c r="F92">
+        <v>-0.01352421619887452</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01395962452144285</v>
+        <v>0.1517695628168216</v>
       </c>
       <c r="C93">
-        <v>0.04568020175268124</v>
+        <v>-0.02610638523889727</v>
       </c>
       <c r="D93">
-        <v>0.2118163308496892</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2678444376098823</v>
+      </c>
+      <c r="E93">
+        <v>0.07735735926536678</v>
+      </c>
+      <c r="F93">
+        <v>0.002774155203721766</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.04058535959081641</v>
+        <v>0.1310431466789894</v>
       </c>
       <c r="C94">
-        <v>0.1519927234759759</v>
+        <v>-0.02460280413364076</v>
       </c>
       <c r="D94">
-        <v>0.02681090903922876</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04297086695859803</v>
+      </c>
+      <c r="E94">
+        <v>-0.05790003659529198</v>
+      </c>
+      <c r="F94">
+        <v>0.03556081559681634</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02529306710055517</v>
+        <v>0.1275552155340966</v>
       </c>
       <c r="C95">
-        <v>0.1428197985322666</v>
+        <v>-0.004171742692139926</v>
       </c>
       <c r="D95">
-        <v>-0.01239861855085988</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09187444757978884</v>
+      </c>
+      <c r="E95">
+        <v>-0.04690926489311123</v>
+      </c>
+      <c r="F95">
+        <v>-0.007186775164197975</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9762724337488019</v>
+        <v>0.1051783298035356</v>
       </c>
       <c r="C96">
-        <v>0.196855867782688</v>
+        <v>0.9878844254767563</v>
       </c>
       <c r="D96">
-        <v>0.02281705382704834</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04241315626994979</v>
+      </c>
+      <c r="E96">
+        <v>-0.05580317442298966</v>
+      </c>
+      <c r="F96">
+        <v>0.04235544048841171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.004208569411991919</v>
+        <v>0.1931105283931841</v>
       </c>
       <c r="C97">
-        <v>0.1620490501268828</v>
+        <v>0.007946521055249895</v>
       </c>
       <c r="D97">
-        <v>0.1031345170221764</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01609206631404416</v>
+      </c>
+      <c r="E97">
+        <v>-0.01867862874705647</v>
+      </c>
+      <c r="F97">
+        <v>-0.08929930155680707</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02514956483083744</v>
+        <v>0.2044052518713909</v>
       </c>
       <c r="C98">
-        <v>0.1962836493653568</v>
+        <v>-0.007301569903709983</v>
       </c>
       <c r="D98">
-        <v>0.02735743255512955</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01077513985958667</v>
+      </c>
+      <c r="E98">
+        <v>0.08530009556416304</v>
+      </c>
+      <c r="F98">
+        <v>-0.09565020381101133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003802986990885181</v>
+        <v>0.0554231722293393</v>
       </c>
       <c r="C99">
-        <v>0.05480495646042961</v>
+        <v>0.004782996603783438</v>
       </c>
       <c r="D99">
-        <v>0.01995948441434079</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03988838396670063</v>
+      </c>
+      <c r="E99">
+        <v>-0.02355468592267873</v>
+      </c>
+      <c r="F99">
+        <v>0.001434138744193921</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.007385520112093596</v>
+        <v>0.125208371784681</v>
       </c>
       <c r="C100">
-        <v>0.2041135867377407</v>
+        <v>0.05326143149367271</v>
       </c>
       <c r="D100">
-        <v>-0.7498636311018839</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3447748255658178</v>
+      </c>
+      <c r="E100">
+        <v>0.8893644175824127</v>
+      </c>
+      <c r="F100">
+        <v>-0.1389692890816736</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01288535624630907</v>
+        <v>0.02764363248002355</v>
       </c>
       <c r="C101">
-        <v>0.02843002986661454</v>
+        <v>-0.008160906511948989</v>
       </c>
       <c r="D101">
-        <v>0.01099209394511228</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03234457085306744</v>
+      </c>
+      <c r="E101">
+        <v>-0.0108011768204213</v>
+      </c>
+      <c r="F101">
+        <v>-0.01151235737391766</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
